--- a/Code/Results/Cases/Case_2_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.35814580159377</v>
+        <v>8.77539444320486</v>
       </c>
       <c r="C2">
-        <v>6.763292329741169</v>
+        <v>5.618615777951677</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.55710711692421</v>
+        <v>12.75368349509711</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.101119222398449</v>
+        <v>3.644333388148898</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.02301932491744</v>
+        <v>8.016937088703637</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.36163681157322</v>
+        <v>13.44571191124559</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.00021673637281</v>
+        <v>22.85787117799837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57522522858984</v>
+        <v>8.493080847653289</v>
       </c>
       <c r="C3">
-        <v>6.535378201057041</v>
+        <v>5.523668426412742</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.69614542313128</v>
+        <v>12.54331243916406</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.106110900914147</v>
+        <v>3.646118907752443</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.44477217681221</v>
+        <v>7.825180600948357</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.44476144407921</v>
+        <v>13.27559894548341</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.18260092059779</v>
+        <v>22.96939555485234</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.06740418888297</v>
+        <v>8.316184986892294</v>
       </c>
       <c r="C4">
-        <v>6.391402233913919</v>
+        <v>5.464116026518473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.15282736352003</v>
+        <v>12.416936497438</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.109262695298565</v>
+        <v>3.647272281262355</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.07284766718229</v>
+        <v>7.706038463641009</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.85219940170383</v>
+        <v>13.17319416131309</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.3095950952023</v>
+        <v>23.04316136907838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85364100742207</v>
+        <v>8.243317892729145</v>
       </c>
       <c r="C5">
-        <v>6.331769417512683</v>
+        <v>5.439551981554254</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.92794319688051</v>
+        <v>12.3662138255407</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.110569555825846</v>
+        <v>3.647756683548254</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.917111428303869</v>
+        <v>7.65720281892831</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.60326227528658</v>
+        <v>13.13202642334059</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.36492313561122</v>
+        <v>23.07454882229215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.81773376492139</v>
+        <v>8.231174702463518</v>
       </c>
       <c r="C6">
-        <v>6.321811048619544</v>
+        <v>5.435455847324894</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.89039863567562</v>
+        <v>12.35784040855884</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.110787934562772</v>
+        <v>3.647837988837925</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.891001860775457</v>
+        <v>7.649078590587795</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.56147532976338</v>
+        <v>13.12522596163587</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.37432082350167</v>
+        <v>23.07984076933399</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.06454892747641</v>
+        <v>8.315205280318786</v>
       </c>
       <c r="C7">
-        <v>6.390601822583916</v>
+        <v>5.463785919332838</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.14980825497346</v>
+        <v>12.41624919242777</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.109280228247871</v>
+        <v>3.647278755743048</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.0707641479399</v>
+        <v>7.705380907241127</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.84887238570859</v>
+        <v>13.17263661545858</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.31032703728479</v>
+        <v>23.04357930079218</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09381368913589</v>
+        <v>8.678855473152504</v>
       </c>
       <c r="C8">
-        <v>6.685575228968115</v>
+        <v>5.586149723015797</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.26340795170987</v>
+        <v>12.68061288566543</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.102822710614829</v>
+        <v>3.644937220648405</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.82717944875018</v>
+        <v>7.951150746717353</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.05162453007633</v>
+        <v>13.38666201014062</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.05986481388425</v>
+        <v>22.89522529335342</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.89788555959438</v>
+        <v>9.359260990325335</v>
       </c>
       <c r="C9">
-        <v>7.229976933669782</v>
+        <v>5.815335401463749</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.37853655764009</v>
+        <v>13.21787462590273</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.090818608443954</v>
+        <v>3.640796109785169</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.17437447080434</v>
+        <v>8.419130156083522</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.17696130612084</v>
+        <v>13.82041054280421</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.6973280181124</v>
+        <v>22.64639739797254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.09426545381042</v>
+        <v>9.833815482209079</v>
       </c>
       <c r="C10">
-        <v>7.606944656990051</v>
+        <v>5.976116478264029</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.99471825977666</v>
+        <v>13.6196430099036</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.082355921979668</v>
+        <v>3.638025417467985</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.07926379922012</v>
+        <v>8.750884649862096</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.59921598424433</v>
+        <v>14.14469507608299</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.52348623272488</v>
+        <v>22.48941723614329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.61096591705255</v>
+        <v>10.04323777419087</v>
       </c>
       <c r="C11">
-        <v>7.773086830019496</v>
+        <v>6.047406830219406</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.70069436465288</v>
+        <v>13.8030210983532</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.078572747561255</v>
+        <v>3.636823347400271</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.47233525800487</v>
+        <v>8.898514504795205</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.21683527822818</v>
+        <v>14.29281312427323</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.46782935165014</v>
+        <v>22.42365034881064</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.80271041184805</v>
+        <v>10.12154344621468</v>
       </c>
       <c r="C12">
-        <v>7.835209957488952</v>
+        <v>6.074120864766599</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.96394572116266</v>
+        <v>13.87247483952577</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.077148772512086</v>
+        <v>3.636376495500699</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.6185109311911</v>
+        <v>8.953894828762573</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.44656643554128</v>
+        <v>14.3489362985568</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.45041750950707</v>
+        <v>22.39956107619441</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76158838480086</v>
+        <v>10.10472433334886</v>
       </c>
       <c r="C13">
-        <v>7.821866135292726</v>
+        <v>6.068380310911335</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.90742956955833</v>
+        <v>13.85751735507023</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.077455082844327</v>
+        <v>3.636472362531048</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.5871481598785</v>
+        <v>8.941991757976506</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.39727290087404</v>
+        <v>14.33684847096796</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.4539996368884</v>
+        <v>22.40471281723808</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.62681913670356</v>
+        <v>10.04970040236767</v>
       </c>
       <c r="C14">
-        <v>7.778213709462406</v>
+        <v>6.049610351903795</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.72243339238541</v>
+        <v>13.808735273456</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.078455428922656</v>
+        <v>3.636786417600479</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.4844147490761</v>
+        <v>8.903081456020077</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.23581806409073</v>
+        <v>14.29743002312015</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.4663216888935</v>
+        <v>22.42165215088973</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.54376004798663</v>
+        <v>10.01586474893462</v>
       </c>
       <c r="C15">
-        <v>7.751371692084687</v>
+        <v>6.038076014280594</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.60858941852976</v>
+        <v>13.778854262642</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.079069264755371</v>
+        <v>3.63697987104335</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.42113969083114</v>
+        <v>8.879178094746383</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.13638453298476</v>
+        <v>14.27328799617215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.47435550735725</v>
+        <v>22.43213425500254</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05994713486879</v>
+        <v>9.819993206113116</v>
       </c>
       <c r="C16">
-        <v>7.595977278356476</v>
+        <v>5.971418868230895</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.94800253331119</v>
+        <v>13.60766461577673</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.082604421760488</v>
+        <v>3.63810514575313</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.05320165989967</v>
+        <v>8.741166076233579</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.55826835956314</v>
+        <v>14.13502279672171</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.52761986518176</v>
+        <v>22.49382913847063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.75611812284736</v>
+        <v>9.698126905061567</v>
       </c>
       <c r="C17">
-        <v>7.499261409684682</v>
+        <v>5.930041362402711</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.5353457863551</v>
+        <v>13.50274745880875</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.084789523851074</v>
+        <v>3.638810375455469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.82272379875872</v>
+        <v>8.655620548965238</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.19614124559524</v>
+        <v>14.05031770241446</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.56650135543278</v>
+        <v>22.53312510429637</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.578768857554</v>
+        <v>9.627428714019844</v>
       </c>
       <c r="C18">
-        <v>7.443131186842058</v>
+        <v>5.906068909599393</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.29523714923786</v>
+        <v>13.44246383030706</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.086052660346088</v>
+        <v>3.639221497885159</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.68841091283058</v>
+        <v>8.606110444882182</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.9850856587069</v>
+        <v>14.00165705216032</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.59105117574961</v>
+        <v>22.55625814325384</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.51827459430999</v>
+        <v>9.603390054765914</v>
       </c>
       <c r="C19">
-        <v>7.424041062041898</v>
+        <v>5.897923005909559</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.21346320763265</v>
+        <v>13.42206581024405</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.086481450196832</v>
+        <v>3.639361641584568</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.64263484438526</v>
+        <v>8.589296147672391</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.91314800563667</v>
+        <v>13.98519321205573</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.59973002825975</v>
+        <v>22.56418169038167</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.78872951310341</v>
+        <v>9.711162814722412</v>
       </c>
       <c r="C20">
-        <v>7.509609098923336</v>
+        <v>5.934464114129446</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.57955858100847</v>
+        <v>13.51391021323481</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.084556268112237</v>
+        <v>3.638734734354812</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.84743952648005</v>
+        <v>8.664759130393408</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.23497642167009</v>
+        <v>14.05932892914522</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.56213399182106</v>
+        <v>22.52888699519691</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.66651013347502</v>
+        <v>10.06588986761839</v>
       </c>
       <c r="C21">
-        <v>7.791057118616596</v>
+        <v>6.055131322804334</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.77688115939051</v>
+        <v>13.82306400467791</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.078161376613943</v>
+        <v>3.636693945840674</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.51466253096498</v>
+        <v>8.914524961405313</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.28335318937323</v>
+        <v>14.3090076616407</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.46260053153679</v>
+        <v>22.41665450428078</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.21737142663116</v>
+        <v>10.2918804125497</v>
       </c>
       <c r="C22">
-        <v>7.970380317818367</v>
+        <v>6.132343372971304</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.53564553471558</v>
+        <v>14.02515327562556</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.074031766098665</v>
+        <v>3.635408799827414</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.9351621961108</v>
+        <v>9.094088621575573</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.94439230940818</v>
+        <v>14.47236246582668</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.41905431614156</v>
+        <v>22.34805750807498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.92543949295088</v>
+        <v>10.17182079661348</v>
       </c>
       <c r="C23">
-        <v>7.875101086970339</v>
+        <v>6.091289981549657</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.13281009761597</v>
+        <v>13.91731508080605</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.076231587009077</v>
+        <v>3.636090270869921</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.71215662839029</v>
+        <v>8.989502608644489</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.59376446661857</v>
+        <v>14.38517781281172</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.44022680532108</v>
+        <v>22.38423287902963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.77399423529979</v>
+        <v>9.705271254430208</v>
       </c>
       <c r="C24">
-        <v>7.504932548235625</v>
+        <v>5.932465159902944</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.55957891462086</v>
+        <v>13.50886341828592</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.084661701493955</v>
+        <v>3.638768914010754</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.83627117753185</v>
+        <v>8.660628598054137</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.21742796455653</v>
+        <v>14.05525483293919</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.56410165805922</v>
+        <v>22.53080135854156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43264092979592</v>
+        <v>9.179287653242534</v>
       </c>
       <c r="C25">
-        <v>7.086601830375597</v>
+        <v>5.754597782649912</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.78039645102902</v>
+        <v>13.07097493478446</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.093999955910217</v>
+        <v>3.641868451337158</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.82474278765277</v>
+        <v>8.294407015216938</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.62670286649349</v>
+        <v>13.70187105228086</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.78023561643252</v>
+        <v>22.70918789934024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.77539444320486</v>
+        <v>12.35814580159384</v>
       </c>
       <c r="C2">
-        <v>5.618615777951677</v>
+        <v>6.763292329741136</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.75368349509711</v>
+        <v>14.55710711692422</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.644333388148898</v>
+        <v>2.101119222398314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.016937088703637</v>
+        <v>11.02301932491745</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.44571191124559</v>
+        <v>14.36163681157325</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.85787117799837</v>
+        <v>15.00021673637275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.493080847653289</v>
+        <v>11.57522522858986</v>
       </c>
       <c r="C3">
-        <v>5.523668426412742</v>
+        <v>6.535378201057042</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.54331243916406</v>
+        <v>13.69614542313129</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.646118907752443</v>
+        <v>2.106110900914147</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.825180600948357</v>
+        <v>10.44477217681224</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.27559894548341</v>
+        <v>13.44476144407923</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.96939555485234</v>
+        <v>15.18260092059785</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.316184986892294</v>
+        <v>11.06740418888303</v>
       </c>
       <c r="C4">
-        <v>5.464116026518473</v>
+        <v>6.391402233913919</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.416936497438</v>
+        <v>13.15282736352003</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.647272281262355</v>
+        <v>2.109262695298565</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.706038463641009</v>
+        <v>10.07284766718235</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.17319416131309</v>
+        <v>12.85219940170386</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.04316136907838</v>
+        <v>15.30959509520205</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.243317892729145</v>
+        <v>10.8536410074221</v>
       </c>
       <c r="C5">
-        <v>5.439551981554254</v>
+        <v>6.331769417512673</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.3662138255407</v>
+        <v>12.92794319688053</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.647756683548254</v>
+        <v>2.110569555825444</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.65720281892831</v>
+        <v>9.917111428303929</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.13202642334059</v>
+        <v>12.60326227528661</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.07454882229215</v>
+        <v>15.36492313561096</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.231174702463518</v>
+        <v>10.8177337649214</v>
       </c>
       <c r="C6">
-        <v>5.435455847324894</v>
+        <v>6.321811048619419</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.35784040855884</v>
+        <v>12.89039863567566</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.647837988837925</v>
+        <v>2.110787934562905</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.649078590587795</v>
+        <v>9.89100186077545</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.12522596163587</v>
+        <v>12.56147532976338</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.07984076933399</v>
+        <v>15.37432082350154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.315205280318786</v>
+        <v>11.06454892747639</v>
       </c>
       <c r="C7">
-        <v>5.463785919332838</v>
+        <v>6.390601822583823</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.41624919242777</v>
+        <v>13.14980825497346</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.647278755743048</v>
+        <v>2.109280228247469</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.705380907241127</v>
+        <v>10.07076414793989</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.17263661545858</v>
+        <v>12.84887238570859</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.04357930079218</v>
+        <v>15.31032703728477</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.678855473152504</v>
+        <v>12.09381368913591</v>
       </c>
       <c r="C8">
-        <v>5.586149723015797</v>
+        <v>6.685575228967995</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.68061288566543</v>
+        <v>14.26340795170988</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.644937220648405</v>
+        <v>2.102822710614695</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.951150746717353</v>
+        <v>10.82717944875021</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.38666201014062</v>
+        <v>14.05162453007627</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.89522529335342</v>
+        <v>15.0598648138843</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.359260990325335</v>
+        <v>13.89788555959437</v>
       </c>
       <c r="C9">
-        <v>5.815335401463749</v>
+        <v>7.229976933669851</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.21787462590273</v>
+        <v>16.37853655764008</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.640796109785169</v>
+        <v>2.090818608443954</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.419130156083522</v>
+        <v>12.17437447080432</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.82041054280421</v>
+        <v>16.17696130612082</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.64639739797254</v>
+        <v>14.69732801811245</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.833815482209079</v>
+        <v>15.09426545381045</v>
       </c>
       <c r="C10">
-        <v>5.976116478264029</v>
+        <v>7.606944656989975</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.6196430099036</v>
+        <v>17.99471825977664</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.638025417467985</v>
+        <v>2.082355921979803</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.750884649862096</v>
+        <v>13.07926379922012</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.14469507608299</v>
+        <v>17.59921598424432</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.48941723614329</v>
+        <v>14.5234862327247</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.04323777419087</v>
+        <v>15.61096591705248</v>
       </c>
       <c r="C11">
-        <v>6.047406830219406</v>
+        <v>7.77308683001946</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.8030210983532</v>
+        <v>18.70069436465286</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.636823347400271</v>
+        <v>2.078572747560987</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.898514504795205</v>
+        <v>13.47233525800482</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.29281312427323</v>
+        <v>18.21683527822815</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.42365034881064</v>
+        <v>14.46782935165011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.12154344621468</v>
+        <v>15.8027104118481</v>
       </c>
       <c r="C12">
-        <v>6.074120864766599</v>
+        <v>7.835209957488838</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.87247483952577</v>
+        <v>18.9639457211627</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.636376495500699</v>
+        <v>2.077148772511951</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.953894828762573</v>
+        <v>13.61851093119115</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.3489362985568</v>
+        <v>18.44656643554131</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.39956107619441</v>
+        <v>14.45041750950697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.10472433334886</v>
+        <v>15.76158838480092</v>
       </c>
       <c r="C13">
-        <v>6.068380310911335</v>
+        <v>7.821866135292701</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.85751735507023</v>
+        <v>18.90742956955832</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.636472362531048</v>
+        <v>2.077455082844461</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.941991757976506</v>
+        <v>13.58714815987854</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.33684847096796</v>
+        <v>18.39727290087405</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.40471281723808</v>
+        <v>14.45399963688836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.04970040236767</v>
+        <v>15.62681913670351</v>
       </c>
       <c r="C14">
-        <v>6.049610351903795</v>
+        <v>7.77821370946242</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.808735273456</v>
+        <v>18.72243339238536</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.636786417600479</v>
+        <v>2.078455428922791</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.903081456020077</v>
+        <v>13.48441474907602</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.29743002312015</v>
+        <v>18.23581806409066</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.42165215088973</v>
+        <v>14.4663216888937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.01586474893462</v>
+        <v>15.54376004798668</v>
       </c>
       <c r="C15">
-        <v>6.038076014280594</v>
+        <v>7.751371692084483</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.778854262642</v>
+        <v>18.60858941852976</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.63697987104335</v>
+        <v>2.079069264755239</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.879178094746383</v>
+        <v>13.42113969083115</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.27328799617215</v>
+        <v>18.13638453298476</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.43213425500254</v>
+        <v>14.47435550735721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.819993206113116</v>
+        <v>15.0599471348688</v>
       </c>
       <c r="C16">
-        <v>5.971418868230895</v>
+        <v>7.5959772783565</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.60766461577673</v>
+        <v>17.9480025333112</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.63810514575313</v>
+        <v>2.082604421760488</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.741166076233579</v>
+        <v>13.05320165989969</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.13502279672171</v>
+        <v>17.55826835956317</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.49382913847063</v>
+        <v>14.52761986518171</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.698126905061567</v>
+        <v>14.75611812284738</v>
       </c>
       <c r="C17">
-        <v>5.930041362402711</v>
+        <v>7.499261409684656</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.50274745880875</v>
+        <v>17.5353457863551</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.638810375455469</v>
+        <v>2.084789523851074</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.655620548965238</v>
+        <v>12.82272379875873</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.05031770241446</v>
+        <v>17.19614124559524</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.53312510429637</v>
+        <v>14.56650135543279</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.627428714019844</v>
+        <v>14.57876885755399</v>
       </c>
       <c r="C18">
-        <v>5.906068909599393</v>
+        <v>7.443131186841989</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.44246383030706</v>
+        <v>17.29523714923791</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.639221497885159</v>
+        <v>2.08605266034609</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.606110444882182</v>
+        <v>12.68841091283058</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.00165705216032</v>
+        <v>16.98508565870694</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.55625814325384</v>
+        <v>14.59105117574963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.603390054765914</v>
+        <v>14.51827459430998</v>
       </c>
       <c r="C19">
-        <v>5.897923005909559</v>
+        <v>7.424041062041725</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.42206581024405</v>
+        <v>17.21346320763265</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.639361641584568</v>
+        <v>2.086481450196831</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.589296147672391</v>
+        <v>12.64263484438523</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.98519321205573</v>
+        <v>16.91314800563665</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.56418169038167</v>
+        <v>14.59973002825967</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.711162814722412</v>
+        <v>14.78872951310343</v>
       </c>
       <c r="C20">
-        <v>5.934464114129446</v>
+        <v>7.509609098923206</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.51391021323481</v>
+        <v>17.5795585810085</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.638734734354812</v>
+        <v>2.084556268112104</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.664759130393408</v>
+        <v>12.84743952648003</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.05932892914522</v>
+        <v>17.23497642167012</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.52888699519691</v>
+        <v>14.56213399182104</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.06588986761839</v>
+        <v>15.66651013347512</v>
       </c>
       <c r="C21">
-        <v>6.055131322804334</v>
+        <v>7.791057118616394</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.82306400467791</v>
+        <v>18.77688115939057</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.636693945840674</v>
+        <v>2.078161376613943</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.914524961405313</v>
+        <v>13.51466253096504</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.3090076616407</v>
+        <v>18.28335318937328</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.41665450428078</v>
+        <v>14.4626005315367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.2918804125497</v>
+        <v>16.21737142663114</v>
       </c>
       <c r="C22">
-        <v>6.132343372971304</v>
+        <v>7.970380317818512</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.02515327562556</v>
+        <v>19.5356455347156</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.635408799827414</v>
+        <v>2.074031766098665</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.094088621575573</v>
+        <v>13.93516219611077</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.47236246582668</v>
+        <v>18.94439230940819</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.34805750807498</v>
+        <v>14.41905431614166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.17182079661348</v>
+        <v>15.92543949295095</v>
       </c>
       <c r="C23">
-        <v>6.091289981549657</v>
+        <v>7.8751010869704</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.91731508080605</v>
+        <v>19.13281009761593</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.636090270869921</v>
+        <v>2.076231587008674</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.989502608644489</v>
+        <v>13.7121566283903</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.38517781281172</v>
+        <v>18.59376446661856</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.38423287902963</v>
+        <v>14.44022680532101</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.705271254430208</v>
+        <v>14.77399423529988</v>
       </c>
       <c r="C24">
-        <v>5.932465159902944</v>
+        <v>7.504932548235526</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.50886341828592</v>
+        <v>17.55957891462088</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.638768914010754</v>
+        <v>2.084661701494088</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.660628598054137</v>
+        <v>12.8362711775319</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.05525483293919</v>
+        <v>17.21742796455657</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.53080135854156</v>
+        <v>14.564101658059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.179287653242534</v>
+        <v>13.43264092979587</v>
       </c>
       <c r="C25">
-        <v>5.754597782649912</v>
+        <v>7.086601830375809</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.07097493478446</v>
+        <v>15.78039645102902</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.641868451337158</v>
+        <v>2.093999955910351</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.294407015216938</v>
+        <v>11.82474278765277</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.70187105228086</v>
+        <v>15.62670286649351</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.70918789934024</v>
+        <v>14.78023561643249</v>
       </c>
     </row>
   </sheetData>
